--- a/src/main/scala/com/nielsen/scala/knowledge point.xlsx
+++ b/src/main/scala/com/nielsen/scala/knowledge point.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="585" windowWidth="28455" windowHeight="11925"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19440" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Q&amp;A" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:L18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>知识点</t>
   </si>
@@ -129,13 +130,21 @@
   </si>
   <si>
     <t>Q&amp;A</t>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -144,21 +153,31 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,18 +226,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +551,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -527,190 +562,211 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="D17" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -726,7 +782,9 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -735,188 +793,88 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/main/scala/com/nielsen/scala/knowledge point.xlsx
+++ b/src/main/scala/com/nielsen/scala/knowledge point.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19440" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16410" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>知识点</t>
   </si>
@@ -133,6 +133,14 @@
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -144,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -174,6 +182,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -243,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -254,6 +268,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +569,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -598,7 +613,9 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -610,7 +627,9 @@
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">

--- a/src/main/scala/com/nielsen/scala/knowledge point.xlsx
+++ b/src/main/scala/com/nielsen/scala/knowledge point.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16410" windowHeight="6600"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16275" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>知识点</t>
   </si>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -257,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -269,6 +273,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,7 +574,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -641,7 +646,9 @@
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -653,7 +660,9 @@
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -665,7 +674,9 @@
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">

--- a/src/main/scala/com/nielsen/scala/knowledge point.xlsx
+++ b/src/main/scala/com/nielsen/scala/knowledge point.xlsx
@@ -11,12 +11,11 @@
     <sheet name="Q&amp;A" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:L18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>知识点</t>
   </si>
@@ -133,6 +132,10 @@
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -574,7 +577,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -688,7 +691,9 @@
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">

--- a/src/main/scala/com/nielsen/scala/knowledge point.xlsx
+++ b/src/main/scala/com/nielsen/scala/knowledge point.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16275" windowHeight="6600"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="16545" windowHeight="5145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Q&amp;A" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>知识点</t>
   </si>
@@ -84,9 +85,6 @@
   </si>
   <si>
     <t>chapter09</t>
-  </si>
-  <si>
-    <t>SelfType</t>
   </si>
   <si>
     <t>chapter10</t>
@@ -152,14 +150,18 @@
   </si>
   <si>
     <t>close</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfType</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -279,15 +281,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -361,6 +368,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -395,6 +403,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,22 +579,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -594,10 +603,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -608,10 +617,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -622,10 +631,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -636,10 +645,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -650,10 +659,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -664,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -678,10 +687,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -692,10 +701,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -705,98 +714,100 @@
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D9" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>13</v>
@@ -811,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -821,92 +832,92 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>

--- a/src/main/scala/com/nielsen/scala/knowledge point.xlsx
+++ b/src/main/scala/com/nielsen/scala/knowledge point.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>知识点</t>
   </si>
@@ -154,6 +154,13 @@
   </si>
   <si>
     <t>SelfType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>close</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +593,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -715,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -728,7 +735,9 @@
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">

--- a/src/main/scala/com/nielsen/scala/knowledge point.xlsx
+++ b/src/main/scala/com/nielsen/scala/knowledge point.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16275" windowHeight="6600"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="16545" windowHeight="5145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Q&amp;A" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A1:L18"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>知识点</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>chapter09</t>
-  </si>
-  <si>
-    <t>SelfType</t>
   </si>
   <si>
     <t>chapter10</t>
@@ -146,6 +143,21 @@
   <si>
     <t>close</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
   </si>
   <si>
     <t>close</t>
@@ -155,8 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -276,15 +288,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -358,6 +375,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -392,6 +410,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,22 +586,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -591,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -605,10 +624,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -619,10 +638,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -633,10 +652,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -647,10 +666,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -661,10 +680,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -675,10 +694,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -688,9 +707,11 @@
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D8" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -700,98 +721,102 @@
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D10" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>13</v>
@@ -806,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -816,92 +841,92 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>

--- a/src/main/scala/com/nielsen/scala/knowledge point.xlsx
+++ b/src/main/scala/com/nielsen/scala/knowledge point.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="16545" windowHeight="5145"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="15450" windowHeight="5145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>知识点</t>
   </si>
@@ -592,8 +592,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -749,7 +749,9 @@
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -761,7 +763,9 @@
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
